--- a/output/prompt_experiment_2023-04-09_1409.xlsx
+++ b/output/prompt_experiment_2023-04-09_1409.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93345f1c83a5c894/lighthouse/Ginkgo coding/content-summarization/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{1C898CE0-87A7-4C28-A553-99CECB2AC03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C2885F7-89ED-437D-9629-E3F9F7E8C7F0}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{1C898CE0-87A7-4C28-A553-99CECB2AC03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3744C0-5589-4B3F-AF16-F7AB97B0D2D9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>article_title</t>
   </si>
@@ -142,13 +142,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>reasonable</t>
-  </si>
-  <si>
     <t>not quite accurate</t>
-  </si>
-  <si>
-    <t>poorly writte</t>
   </si>
   <si>
     <t>wrong</t>
@@ -322,6 +316,15 @@
 Conclusion
 Resistance-trained individuals showed higher RTD and explosive force in the very early phase of contraction that was accompanied by an increase in absolute and normalized MFCV compared with controls. These observations may be explained by recruitment of fast-twitch motor units (i.e., large motor units with large muscle fiber diameters) in a shorter amount of time in the resistance-trained cohort than in controls. In addition to the functional implications in the study of human explosive force, the study also presents a methodology that may be applied in the assessment of the neural strategies of muscle control in health, training, and pathology.
 </t>
+  </si>
+  <si>
+    <t>reasonable but technical</t>
+  </si>
+  <si>
+    <t>reasonable for lay audience</t>
+  </si>
+  <si>
+    <t>poorly written</t>
   </si>
 </sst>
 </file>
@@ -835,7 +838,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -900,6 +903,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1202,10 +1209,10 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,16 +1237,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="4">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4">
         <v>5</v>
       </c>
-      <c r="F1" s="4">
-        <v>4</v>
-      </c>
       <c r="H1" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1247,28 +1254,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1311,10 +1318,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>4</v>
@@ -1323,10 +1330,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1363,26 +1370,26 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
@@ -1390,26 +1397,26 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
@@ -1417,25 +1424,25 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="216" x14ac:dyDescent="0.3">
@@ -1443,25 +1450,25 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="216" x14ac:dyDescent="0.3">
@@ -1469,25 +1476,25 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
@@ -1495,25 +1502,25 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1607,10 +1614,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>4</v>
@@ -1619,10 +1626,10 @@
         <v>5</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1640,7 @@
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -1658,14 +1665,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1680,103 +1688,120 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="str">
         <f>A2&amp;" "&amp;B2</f>
-        <v>5 excellent</v>
+        <v>6 excellent</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C7" si="0">A3&amp;" "&amp;B3</f>
-        <v>4 reasonable</v>
+        <f>A3&amp;" "&amp;B3</f>
+        <v>5 reasonable but technical</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C8" si="0">A4&amp;" "&amp;B4</f>
+        <v>4 reasonable for lay audience</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>3 not quite accurate</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>2 poorly writte</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>1 wrong</v>
+        <v>2 poorly written</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
+        <v>1 wrong</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
         <v>0 unable to get summary</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
